--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FFE212-2A8C-4314-8DAE-777C9422ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C07AE5-4EF0-45E5-88FE-C83595AAFB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
+    <sheet name="Balance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +196,18 @@
   </si>
   <si>
     <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -768,4 +803,935 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
+  <dimension ref="C5:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7:D24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7:E24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7:F24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7:G24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7:H24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7:I24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7:J24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7:L24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>5</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7:M24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>10</v>
+      </c>
+      <c r="N7" cm="1">
+        <f t="array" ref="N7:N24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>300</v>
+      </c>
+      <c r="O7" cm="1">
+        <f t="array" ref="O7:O24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>300</v>
+      </c>
+      <c r="P7" cm="1">
+        <f t="array" ref="P7:P24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>50</v>
+      </c>
+      <c r="Q7" cm="1">
+        <f t="array" ref="Q7:Q24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>5</v>
+      </c>
+      <c r="R7" cm="1">
+        <f t="array" ref="R7:R24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8">
+        <v>10000</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>400</v>
+      </c>
+      <c r="O8">
+        <v>400</v>
+      </c>
+      <c r="P8">
+        <v>55</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>10500</v>
+      </c>
+      <c r="E9">
+        <v>10500</v>
+      </c>
+      <c r="F9">
+        <v>10500</v>
+      </c>
+      <c r="G9">
+        <v>10500</v>
+      </c>
+      <c r="H9">
+        <v>10500</v>
+      </c>
+      <c r="I9">
+        <v>10500</v>
+      </c>
+      <c r="J9">
+        <v>10500</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>500</v>
+      </c>
+      <c r="O9">
+        <v>500</v>
+      </c>
+      <c r="P9">
+        <v>60</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>11000</v>
+      </c>
+      <c r="E10">
+        <v>11000</v>
+      </c>
+      <c r="F10">
+        <v>11000</v>
+      </c>
+      <c r="G10">
+        <v>11000</v>
+      </c>
+      <c r="H10">
+        <v>11000</v>
+      </c>
+      <c r="I10">
+        <v>11000</v>
+      </c>
+      <c r="J10">
+        <v>11000</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>600</v>
+      </c>
+      <c r="O10">
+        <v>600</v>
+      </c>
+      <c r="P10">
+        <v>65</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>11500</v>
+      </c>
+      <c r="E11">
+        <v>11500</v>
+      </c>
+      <c r="F11">
+        <v>11500</v>
+      </c>
+      <c r="G11">
+        <v>11500</v>
+      </c>
+      <c r="H11">
+        <v>11500</v>
+      </c>
+      <c r="I11">
+        <v>11500</v>
+      </c>
+      <c r="J11">
+        <v>11500</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>700</v>
+      </c>
+      <c r="O11">
+        <v>700</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>12000</v>
+      </c>
+      <c r="E12">
+        <v>12000</v>
+      </c>
+      <c r="F12">
+        <v>12000</v>
+      </c>
+      <c r="G12">
+        <v>12000</v>
+      </c>
+      <c r="H12">
+        <v>12000</v>
+      </c>
+      <c r="I12">
+        <v>12000</v>
+      </c>
+      <c r="J12">
+        <v>12000</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>35</v>
+      </c>
+      <c r="N12">
+        <v>800</v>
+      </c>
+      <c r="O12">
+        <v>800</v>
+      </c>
+      <c r="P12">
+        <v>75</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>12500</v>
+      </c>
+      <c r="E13">
+        <v>12500</v>
+      </c>
+      <c r="F13">
+        <v>12500</v>
+      </c>
+      <c r="G13">
+        <v>12500</v>
+      </c>
+      <c r="H13">
+        <v>12500</v>
+      </c>
+      <c r="I13">
+        <v>12500</v>
+      </c>
+      <c r="J13">
+        <v>12500</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>900</v>
+      </c>
+      <c r="O13">
+        <v>900</v>
+      </c>
+      <c r="P13">
+        <v>80</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+      <c r="R13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>13000</v>
+      </c>
+      <c r="E14">
+        <v>13000</v>
+      </c>
+      <c r="F14">
+        <v>13000</v>
+      </c>
+      <c r="G14">
+        <v>13000</v>
+      </c>
+      <c r="H14">
+        <v>13000</v>
+      </c>
+      <c r="I14">
+        <v>13000</v>
+      </c>
+      <c r="J14">
+        <v>13000</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14">
+        <v>1000</v>
+      </c>
+      <c r="P14">
+        <v>85</v>
+      </c>
+      <c r="Q14">
+        <v>19</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>13500</v>
+      </c>
+      <c r="E15">
+        <v>13500</v>
+      </c>
+      <c r="F15">
+        <v>13500</v>
+      </c>
+      <c r="G15">
+        <v>13500</v>
+      </c>
+      <c r="H15">
+        <v>13500</v>
+      </c>
+      <c r="I15">
+        <v>13500</v>
+      </c>
+      <c r="J15">
+        <v>13500</v>
+      </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>1200</v>
+      </c>
+      <c r="O15">
+        <v>1200</v>
+      </c>
+      <c r="P15">
+        <v>90</v>
+      </c>
+      <c r="Q15">
+        <v>21</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>14000</v>
+      </c>
+      <c r="E16">
+        <v>14000</v>
+      </c>
+      <c r="F16">
+        <v>14000</v>
+      </c>
+      <c r="G16">
+        <v>14000</v>
+      </c>
+      <c r="H16">
+        <v>14000</v>
+      </c>
+      <c r="I16">
+        <v>14000</v>
+      </c>
+      <c r="J16">
+        <v>14000</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>1400</v>
+      </c>
+      <c r="O16">
+        <v>1400</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>14500</v>
+      </c>
+      <c r="E17">
+        <v>14500</v>
+      </c>
+      <c r="F17">
+        <v>14500</v>
+      </c>
+      <c r="G17">
+        <v>14500</v>
+      </c>
+      <c r="H17">
+        <v>14500</v>
+      </c>
+      <c r="I17">
+        <v>14500</v>
+      </c>
+      <c r="J17">
+        <v>14500</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>70</v>
+      </c>
+      <c r="N17">
+        <v>1600</v>
+      </c>
+      <c r="O17">
+        <v>1600</v>
+      </c>
+      <c r="P17">
+        <v>110</v>
+      </c>
+      <c r="Q17">
+        <v>27</v>
+      </c>
+      <c r="R17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>15000</v>
+      </c>
+      <c r="E18">
+        <v>15000</v>
+      </c>
+      <c r="F18">
+        <v>15000</v>
+      </c>
+      <c r="G18">
+        <v>15000</v>
+      </c>
+      <c r="H18">
+        <v>15000</v>
+      </c>
+      <c r="I18">
+        <v>15000</v>
+      </c>
+      <c r="J18">
+        <v>15000</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <v>1800</v>
+      </c>
+      <c r="O18">
+        <v>1800</v>
+      </c>
+      <c r="P18">
+        <v>120</v>
+      </c>
+      <c r="Q18">
+        <v>30</v>
+      </c>
+      <c r="R18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>15500</v>
+      </c>
+      <c r="E19">
+        <v>15500</v>
+      </c>
+      <c r="F19">
+        <v>15500</v>
+      </c>
+      <c r="G19">
+        <v>15500</v>
+      </c>
+      <c r="H19">
+        <v>15500</v>
+      </c>
+      <c r="I19">
+        <v>15500</v>
+      </c>
+      <c r="J19">
+        <v>15500</v>
+      </c>
+      <c r="L19">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>2000</v>
+      </c>
+      <c r="O19">
+        <v>2000</v>
+      </c>
+      <c r="P19">
+        <v>130</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+      <c r="R19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>16000</v>
+      </c>
+      <c r="E20">
+        <v>16000</v>
+      </c>
+      <c r="F20">
+        <v>16000</v>
+      </c>
+      <c r="G20">
+        <v>16000</v>
+      </c>
+      <c r="H20">
+        <v>16000</v>
+      </c>
+      <c r="I20">
+        <v>16000</v>
+      </c>
+      <c r="J20">
+        <v>16000</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>2200</v>
+      </c>
+      <c r="O20">
+        <v>2200</v>
+      </c>
+      <c r="P20">
+        <v>140</v>
+      </c>
+      <c r="Q20">
+        <v>36</v>
+      </c>
+      <c r="R20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>16500</v>
+      </c>
+      <c r="E21">
+        <v>16500</v>
+      </c>
+      <c r="F21">
+        <v>16500</v>
+      </c>
+      <c r="G21">
+        <v>16500</v>
+      </c>
+      <c r="H21">
+        <v>16500</v>
+      </c>
+      <c r="I21">
+        <v>16500</v>
+      </c>
+      <c r="J21">
+        <v>16500</v>
+      </c>
+      <c r="L21">
+        <v>55</v>
+      </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>2400</v>
+      </c>
+      <c r="O21">
+        <v>2400</v>
+      </c>
+      <c r="P21">
+        <v>150</v>
+      </c>
+      <c r="Q21">
+        <v>39</v>
+      </c>
+      <c r="R21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>17000</v>
+      </c>
+      <c r="E22">
+        <v>17000</v>
+      </c>
+      <c r="F22">
+        <v>17000</v>
+      </c>
+      <c r="G22">
+        <v>17000</v>
+      </c>
+      <c r="H22">
+        <v>17000</v>
+      </c>
+      <c r="I22">
+        <v>17000</v>
+      </c>
+      <c r="J22">
+        <v>17000</v>
+      </c>
+      <c r="L22">
+        <v>60</v>
+      </c>
+      <c r="M22">
+        <v>120</v>
+      </c>
+      <c r="N22">
+        <v>2600</v>
+      </c>
+      <c r="O22">
+        <v>2600</v>
+      </c>
+      <c r="P22">
+        <v>160</v>
+      </c>
+      <c r="Q22">
+        <v>42</v>
+      </c>
+      <c r="R22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>17500</v>
+      </c>
+      <c r="E23">
+        <v>17500</v>
+      </c>
+      <c r="F23">
+        <v>17500</v>
+      </c>
+      <c r="G23">
+        <v>17500</v>
+      </c>
+      <c r="H23">
+        <v>17500</v>
+      </c>
+      <c r="I23">
+        <v>17500</v>
+      </c>
+      <c r="J23">
+        <v>17500</v>
+      </c>
+      <c r="L23">
+        <v>65</v>
+      </c>
+      <c r="M23">
+        <v>130</v>
+      </c>
+      <c r="N23">
+        <v>2800</v>
+      </c>
+      <c r="O23">
+        <v>2800</v>
+      </c>
+      <c r="P23">
+        <v>170</v>
+      </c>
+      <c r="Q23">
+        <v>45</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>18000</v>
+      </c>
+      <c r="E24">
+        <v>18000</v>
+      </c>
+      <c r="F24">
+        <v>18000</v>
+      </c>
+      <c r="G24">
+        <v>18000</v>
+      </c>
+      <c r="H24">
+        <v>18000</v>
+      </c>
+      <c r="I24">
+        <v>18000</v>
+      </c>
+      <c r="J24">
+        <v>18000</v>
+      </c>
+      <c r="L24">
+        <v>70</v>
+      </c>
+      <c r="M24">
+        <v>140</v>
+      </c>
+      <c r="N24">
+        <v>3000</v>
+      </c>
+      <c r="O24">
+        <v>3000</v>
+      </c>
+      <c r="P24">
+        <v>180</v>
+      </c>
+      <c r="Q24">
+        <v>48</v>
+      </c>
+      <c r="R24">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C07AE5-4EF0-45E5-88FE-C83595AAFB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A8BCB-13EA-4485-BDA0-933AEF98DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -171,34 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +180,34 @@
   </si>
   <si>
     <t>보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -654,7 +654,7 @@
         <v>9008</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -700,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -723,7 +723,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -746,7 +746,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -769,7 +769,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -780,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -792,7 +792,7 @@
         <v>9001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R24"/>
+  <dimension ref="C5:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
@@ -817,15 +817,15 @@
   <sheetData>
     <row r="5" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R24">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -1728,6 +1728,50 @@
       </c>
       <c r="R24">
         <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>18500</v>
+      </c>
+      <c r="E25">
+        <v>18500</v>
+      </c>
+      <c r="F25">
+        <v>18500</v>
+      </c>
+      <c r="G25">
+        <v>18500</v>
+      </c>
+      <c r="H25">
+        <v>18500</v>
+      </c>
+      <c r="I25">
+        <v>18500</v>
+      </c>
+      <c r="J25">
+        <v>18500</v>
+      </c>
+      <c r="L25">
+        <v>75</v>
+      </c>
+      <c r="M25">
+        <v>150</v>
+      </c>
+      <c r="N25">
+        <v>3200</v>
+      </c>
+      <c r="O25">
+        <v>3200</v>
+      </c>
+      <c r="P25">
+        <v>190</v>
+      </c>
+      <c r="Q25">
+        <v>51</v>
+      </c>
+      <c r="R25">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A8BCB-13EA-4485-BDA0-933AEF98DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EB80F7-8BE6-4B74-AEF1-639D0E64A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R25"/>
+  <dimension ref="C5:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R25">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -1731,6 +1731,9 @@
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>19</v>
+      </c>
       <c r="D25">
         <v>18500</v>
       </c>
@@ -1772,6 +1775,53 @@
       </c>
       <c r="R25">
         <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>19000</v>
+      </c>
+      <c r="E26">
+        <v>19000</v>
+      </c>
+      <c r="F26">
+        <v>19000</v>
+      </c>
+      <c r="G26">
+        <v>19000</v>
+      </c>
+      <c r="H26">
+        <v>19000</v>
+      </c>
+      <c r="I26">
+        <v>19000</v>
+      </c>
+      <c r="J26">
+        <v>19000</v>
+      </c>
+      <c r="L26">
+        <v>80</v>
+      </c>
+      <c r="M26">
+        <v>160</v>
+      </c>
+      <c r="N26">
+        <v>3400</v>
+      </c>
+      <c r="O26">
+        <v>3400</v>
+      </c>
+      <c r="P26">
+        <v>200</v>
+      </c>
+      <c r="Q26">
+        <v>53</v>
+      </c>
+      <c r="R26">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EB80F7-8BE6-4B74-AEF1-639D0E64A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3BE49-8343-4E9D-9B9F-98D50643A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R26"/>
+  <dimension ref="C5:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R26">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -1822,6 +1822,50 @@
       </c>
       <c r="R26">
         <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>19500</v>
+      </c>
+      <c r="E27">
+        <v>19500</v>
+      </c>
+      <c r="F27">
+        <v>19500</v>
+      </c>
+      <c r="G27">
+        <v>19500</v>
+      </c>
+      <c r="H27">
+        <v>19500</v>
+      </c>
+      <c r="I27">
+        <v>19500</v>
+      </c>
+      <c r="J27">
+        <v>19500</v>
+      </c>
+      <c r="L27">
+        <v>85</v>
+      </c>
+      <c r="M27">
+        <v>170</v>
+      </c>
+      <c r="N27">
+        <v>3600</v>
+      </c>
+      <c r="O27">
+        <v>3600</v>
+      </c>
+      <c r="P27">
+        <v>210</v>
+      </c>
+      <c r="Q27">
+        <v>55</v>
+      </c>
+      <c r="R27">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3BE49-8343-4E9D-9B9F-98D50643A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4D38BA-3877-49DB-85D4-0AAA779BDD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R27"/>
+  <dimension ref="C5:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -1825,6 +1825,9 @@
       </c>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>21</v>
+      </c>
       <c r="D27">
         <v>19500</v>
       </c>
@@ -1866,6 +1869,53 @@
       </c>
       <c r="R27">
         <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>20000</v>
+      </c>
+      <c r="E28">
+        <v>20000</v>
+      </c>
+      <c r="F28">
+        <v>20000</v>
+      </c>
+      <c r="G28">
+        <v>20000</v>
+      </c>
+      <c r="H28">
+        <v>20000</v>
+      </c>
+      <c r="I28">
+        <v>20000</v>
+      </c>
+      <c r="J28">
+        <v>20000</v>
+      </c>
+      <c r="L28">
+        <v>90</v>
+      </c>
+      <c r="M28">
+        <v>180</v>
+      </c>
+      <c r="N28">
+        <v>3800</v>
+      </c>
+      <c r="O28">
+        <v>3800</v>
+      </c>
+      <c r="P28">
+        <v>220</v>
+      </c>
+      <c r="Q28">
+        <v>57</v>
+      </c>
+      <c r="R28">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4D38BA-3877-49DB-85D4-0AAA779BDD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46510B86-93D9-460E-B205-AE1370B84898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R28"/>
+  <dimension ref="C5:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -1916,6 +1916,53 @@
       </c>
       <c r="R28">
         <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>20500</v>
+      </c>
+      <c r="E29">
+        <v>20500</v>
+      </c>
+      <c r="F29">
+        <v>20500</v>
+      </c>
+      <c r="G29">
+        <v>20500</v>
+      </c>
+      <c r="H29">
+        <v>20500</v>
+      </c>
+      <c r="I29">
+        <v>20500</v>
+      </c>
+      <c r="J29">
+        <v>20500</v>
+      </c>
+      <c r="L29">
+        <v>95</v>
+      </c>
+      <c r="M29">
+        <v>190</v>
+      </c>
+      <c r="N29">
+        <v>4000</v>
+      </c>
+      <c r="O29">
+        <v>4000</v>
+      </c>
+      <c r="P29">
+        <v>230</v>
+      </c>
+      <c r="Q29">
+        <v>59</v>
+      </c>
+      <c r="R29">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46510B86-93D9-460E-B205-AE1370B84898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB946C5-2585-4CB9-9C73-393196CD4B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R29"/>
+  <dimension ref="C5:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -1963,6 +1963,50 @@
       </c>
       <c r="R29">
         <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>21000</v>
+      </c>
+      <c r="E30">
+        <v>21000</v>
+      </c>
+      <c r="F30">
+        <v>21000</v>
+      </c>
+      <c r="G30">
+        <v>21000</v>
+      </c>
+      <c r="H30">
+        <v>21000</v>
+      </c>
+      <c r="I30">
+        <v>21000</v>
+      </c>
+      <c r="J30">
+        <v>21000</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>200</v>
+      </c>
+      <c r="N30">
+        <v>4200</v>
+      </c>
+      <c r="O30">
+        <v>4200</v>
+      </c>
+      <c r="P30">
+        <v>240</v>
+      </c>
+      <c r="Q30">
+        <v>61</v>
+      </c>
+      <c r="R30">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB946C5-2585-4CB9-9C73-393196CD4B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E1153-82FD-4A26-A827-DE74FD2F8578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R30"/>
+  <dimension ref="C5:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2007,6 +2007,50 @@
       </c>
       <c r="R30">
         <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>21500</v>
+      </c>
+      <c r="E31">
+        <v>21500</v>
+      </c>
+      <c r="F31">
+        <v>21500</v>
+      </c>
+      <c r="G31">
+        <v>21500</v>
+      </c>
+      <c r="H31">
+        <v>21500</v>
+      </c>
+      <c r="I31">
+        <v>21500</v>
+      </c>
+      <c r="J31">
+        <v>21500</v>
+      </c>
+      <c r="L31">
+        <v>105</v>
+      </c>
+      <c r="M31">
+        <v>205</v>
+      </c>
+      <c r="N31">
+        <v>4400</v>
+      </c>
+      <c r="O31">
+        <v>4400</v>
+      </c>
+      <c r="P31">
+        <v>250</v>
+      </c>
+      <c r="Q31">
+        <v>63</v>
+      </c>
+      <c r="R31">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E1153-82FD-4A26-A827-DE74FD2F8578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C6B665-A967-484C-9ED1-203215304AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R31"/>
+  <dimension ref="C5:R32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2051,6 +2051,50 @@
       </c>
       <c r="R31">
         <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>22000</v>
+      </c>
+      <c r="E32">
+        <v>22000</v>
+      </c>
+      <c r="F32">
+        <v>22000</v>
+      </c>
+      <c r="G32">
+        <v>22000</v>
+      </c>
+      <c r="H32">
+        <v>22000</v>
+      </c>
+      <c r="I32">
+        <v>22000</v>
+      </c>
+      <c r="J32">
+        <v>22000</v>
+      </c>
+      <c r="L32">
+        <v>110</v>
+      </c>
+      <c r="M32">
+        <v>210</v>
+      </c>
+      <c r="N32">
+        <v>4600</v>
+      </c>
+      <c r="O32">
+        <v>4600</v>
+      </c>
+      <c r="P32">
+        <v>260</v>
+      </c>
+      <c r="Q32">
+        <v>65</v>
+      </c>
+      <c r="R32">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C6B665-A967-484C-9ED1-203215304AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867BB865-A342-41BA-A1E4-7B4D04FBB1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R32"/>
+  <dimension ref="C5:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2095,6 +2095,50 @@
       </c>
       <c r="R32">
         <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>22500</v>
+      </c>
+      <c r="E33">
+        <v>22500</v>
+      </c>
+      <c r="F33">
+        <v>22500</v>
+      </c>
+      <c r="G33">
+        <v>22500</v>
+      </c>
+      <c r="H33">
+        <v>22500</v>
+      </c>
+      <c r="I33">
+        <v>22500</v>
+      </c>
+      <c r="J33">
+        <v>22500</v>
+      </c>
+      <c r="L33">
+        <v>115</v>
+      </c>
+      <c r="M33">
+        <v>215</v>
+      </c>
+      <c r="N33">
+        <v>4800</v>
+      </c>
+      <c r="O33">
+        <v>4800</v>
+      </c>
+      <c r="P33">
+        <v>270</v>
+      </c>
+      <c r="Q33">
+        <v>67</v>
+      </c>
+      <c r="R33">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867BB865-A342-41BA-A1E4-7B4D04FBB1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE44EE3F-8A04-4CDF-AFE9-C18BD33D08BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -448,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,9 +807,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R33"/>
+  <dimension ref="C5:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2139,6 +2139,50 @@
       </c>
       <c r="R33">
         <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>23000</v>
+      </c>
+      <c r="E34">
+        <v>23000</v>
+      </c>
+      <c r="F34">
+        <v>23000</v>
+      </c>
+      <c r="G34">
+        <v>23000</v>
+      </c>
+      <c r="H34">
+        <v>23000</v>
+      </c>
+      <c r="I34">
+        <v>23000</v>
+      </c>
+      <c r="J34">
+        <v>23000</v>
+      </c>
+      <c r="L34">
+        <v>120</v>
+      </c>
+      <c r="M34">
+        <v>220</v>
+      </c>
+      <c r="N34">
+        <v>5000</v>
+      </c>
+      <c r="O34">
+        <v>5000</v>
+      </c>
+      <c r="P34">
+        <v>280</v>
+      </c>
+      <c r="Q34">
+        <v>68</v>
+      </c>
+      <c r="R34">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE44EE3F-8A04-4CDF-AFE9-C18BD33D08BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159C779-3892-4DE1-894B-708DB1CD9672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,24000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R34"/>
+  <dimension ref="C5:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R34">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2183,6 +2183,50 @@
       </c>
       <c r="R34">
         <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>24000</v>
+      </c>
+      <c r="E35">
+        <v>24000</v>
+      </c>
+      <c r="F35">
+        <v>24000</v>
+      </c>
+      <c r="G35">
+        <v>24000</v>
+      </c>
+      <c r="H35">
+        <v>24000</v>
+      </c>
+      <c r="I35">
+        <v>24000</v>
+      </c>
+      <c r="J35">
+        <v>24000</v>
+      </c>
+      <c r="L35">
+        <v>125</v>
+      </c>
+      <c r="M35">
+        <v>225</v>
+      </c>
+      <c r="N35">
+        <v>5200</v>
+      </c>
+      <c r="O35">
+        <v>5200</v>
+      </c>
+      <c r="P35">
+        <v>290</v>
+      </c>
+      <c r="Q35">
+        <v>69</v>
+      </c>
+      <c r="R35">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159C779-3892-4DE1-894B-708DB1CD9672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98BFE4-DD3E-443C-BB56-A4290FDE240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,24000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,23500,24000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225,230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200,5400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26,27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R35"/>
+  <dimension ref="C5:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R35">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2187,25 +2187,25 @@
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D35">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="E35">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="F35">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="G35">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="H35">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="I35">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="J35">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="L35">
         <v>125</v>
@@ -2227,6 +2227,50 @@
       </c>
       <c r="R35">
         <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>24000</v>
+      </c>
+      <c r="E36">
+        <v>24000</v>
+      </c>
+      <c r="F36">
+        <v>24000</v>
+      </c>
+      <c r="G36">
+        <v>24000</v>
+      </c>
+      <c r="H36">
+        <v>24000</v>
+      </c>
+      <c r="I36">
+        <v>24000</v>
+      </c>
+      <c r="J36">
+        <v>24000</v>
+      </c>
+      <c r="L36">
+        <v>130</v>
+      </c>
+      <c r="M36">
+        <v>230</v>
+      </c>
+      <c r="N36">
+        <v>5400</v>
+      </c>
+      <c r="O36">
+        <v>5400</v>
+      </c>
+      <c r="P36">
+        <v>300</v>
+      </c>
+      <c r="Q36">
+        <v>70</v>
+      </c>
+      <c r="R36">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98BFE4-DD3E-443C-BB56-A4290FDE240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B5A17-1947-4A45-AE76-C468EBB0B218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,23500,24000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225,230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200,5400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26,27</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,23500,24000,24500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125,130,135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225,230,235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200,5400,5600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300,310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69,70,71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R36"/>
+  <dimension ref="C5:R37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2271,6 +2271,50 @@
       </c>
       <c r="R36">
         <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>24500</v>
+      </c>
+      <c r="E37">
+        <v>24500</v>
+      </c>
+      <c r="F37">
+        <v>24500</v>
+      </c>
+      <c r="G37">
+        <v>24500</v>
+      </c>
+      <c r="H37">
+        <v>24500</v>
+      </c>
+      <c r="I37">
+        <v>24500</v>
+      </c>
+      <c r="J37">
+        <v>24500</v>
+      </c>
+      <c r="L37">
+        <v>135</v>
+      </c>
+      <c r="M37">
+        <v>235</v>
+      </c>
+      <c r="N37">
+        <v>5600</v>
+      </c>
+      <c r="O37">
+        <v>5600</v>
+      </c>
+      <c r="P37">
+        <v>310</v>
+      </c>
+      <c r="Q37">
+        <v>71</v>
+      </c>
+      <c r="R37">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B5A17-1947-4A45-AE76-C468EBB0B218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53104F-D041-4740-9133-D05BF398EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,23500,24000,24500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125,130,135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225,230,235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200,5400,5600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300,310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69,70,71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,23500,24000,24500,25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125,130,135,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225,230,235,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200,5400,5600,5800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300,310,320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69,70,71,72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R37"/>
+  <dimension ref="C5:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R37">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2315,6 +2315,50 @@
       </c>
       <c r="R37">
         <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>25000</v>
+      </c>
+      <c r="E38">
+        <v>25000</v>
+      </c>
+      <c r="F38">
+        <v>25000</v>
+      </c>
+      <c r="G38">
+        <v>25000</v>
+      </c>
+      <c r="H38">
+        <v>25000</v>
+      </c>
+      <c r="I38">
+        <v>25000</v>
+      </c>
+      <c r="J38">
+        <v>25000</v>
+      </c>
+      <c r="L38">
+        <v>140</v>
+      </c>
+      <c r="M38">
+        <v>240</v>
+      </c>
+      <c r="N38">
+        <v>5800</v>
+      </c>
+      <c r="O38">
+        <v>5800</v>
+      </c>
+      <c r="P38">
+        <v>320</v>
+      </c>
+      <c r="Q38">
+        <v>72</v>
+      </c>
+      <c r="R38">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53104F-D041-4740-9133-D05BF398EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B721C-BCFB-42D5-8E9E-AC126A0164C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -183,31 +183,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,23500,24000,24500,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125,130,135,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225,230,235,240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200,5400,5600,5800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300,310,320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69,70,71,72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000,18500,19000,19500,20000,20500,21000,21500,22000,22500,23000,23500,24000,24500,25000,25500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105,110,115,120,125,130,135,140,145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,205,210,215,220,225,230,235,240,245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000,3200,3400,3600,3800,4000,4200,4400,4600,4800,5000,5200,5400,5600,5800,6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300,310,320,330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48,51,53,55,57,59,61,63,65,67,68,69,70,71,72,73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:R38"/>
+  <dimension ref="C5:R39"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
@@ -875,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!B8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7:L38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="L7:L39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>300</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>50</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>5</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R38">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R39">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(DayOfWeekDungeon!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>6</v>
       </c>
     </row>
@@ -2359,6 +2359,50 @@
       </c>
       <c r="R38">
         <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>25500</v>
+      </c>
+      <c r="E39">
+        <v>25500</v>
+      </c>
+      <c r="F39">
+        <v>25500</v>
+      </c>
+      <c r="G39">
+        <v>25500</v>
+      </c>
+      <c r="H39">
+        <v>25500</v>
+      </c>
+      <c r="I39">
+        <v>25500</v>
+      </c>
+      <c r="J39">
+        <v>25500</v>
+      </c>
+      <c r="L39">
+        <v>145</v>
+      </c>
+      <c r="M39">
+        <v>245</v>
+      </c>
+      <c r="N39">
+        <v>6000</v>
+      </c>
+      <c r="O39">
+        <v>6000</v>
+      </c>
+      <c r="P39">
+        <v>330</v>
+      </c>
+      <c r="Q39">
+        <v>73</v>
+      </c>
+      <c r="R39">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
